--- a/mean/public/assets/excel/template_excel.xlsx
+++ b/mean/public/assets/excel/template_excel.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrthuongit\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>TITLE</t>
   </si>
@@ -60,17 +55,20 @@
     <t>Câu hỏi 2</t>
   </si>
   <si>
-    <t>Câu hỏi 3</t>
-  </si>
-  <si>
-    <t>Câu hỏi 4</t>
+    <t>2;</t>
+  </si>
+  <si>
+    <t>1;3;4</t>
+  </si>
+  <si>
+    <t>mc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,7 +648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -702,7 +700,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -896,7 +894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -904,15 +902,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -946,13 +944,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -963,52 +961,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
